--- a/ExportExcel2.xlsx
+++ b/ExportExcel2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A394EF-640E-4E10-A74A-C375C80233BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95636D41-79F9-47FB-829B-383BC07D2B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="7">
-        <v>123456789</v>
+        <v>623456789</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>6</v>
@@ -703,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="7">
-        <v>191909293</v>
+        <v>791909293</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>15</v>
